--- a/Group_Ass.xlsx
+++ b/Group_Ass.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>Members</t>
   </si>
@@ -73,6 +73,9 @@
     <t>To-do</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Tasks</t>
   </si>
   <si>
@@ -190,19 +193,88 @@
     <t>Design a new model in SolidWorks</t>
   </si>
   <si>
-    <t>Definition of the disciplines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose microcontrollers, which part will be hardware and software, etc.. </t>
-  </si>
-  <si>
-    <t>TO-DO</t>
+    <t>LB,WK</t>
   </si>
   <si>
     <t>New Idea for the car exterior</t>
   </si>
   <si>
     <t>Strictly related to the new model task</t>
+  </si>
+  <si>
+    <t>Create dimensional Views</t>
+  </si>
+  <si>
+    <t>Create dimensional views of the model</t>
+  </si>
+  <si>
+    <t>WK, LB</t>
+  </si>
+  <si>
+    <t>Consider diffent aspects of the model</t>
+  </si>
+  <si>
+    <t>Different aspects like ergonomics and so on</t>
+  </si>
+  <si>
+    <t>WK,LB</t>
+  </si>
+  <si>
+    <t>Define disciplines</t>
+  </si>
+  <si>
+    <t>Define disciplines for all subsystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refine the subsystem </t>
+  </si>
+  <si>
+    <t>Refinement of the subsystem diagram</t>
+  </si>
+  <si>
+    <t>Appropriate techniques</t>
+  </si>
+  <si>
+    <t>Uml and Algorithms for different parts</t>
+  </si>
+  <si>
+    <t>LB, GK</t>
+  </si>
+  <si>
+    <t>Define a functional Model</t>
+  </si>
+  <si>
+    <t>LB, GK, KT, WK</t>
+  </si>
+  <si>
+    <t>How to follow light</t>
+  </si>
+  <si>
+    <t>Define how the “Seeking ” subsystem works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define Seeking subsistem </t>
+  </si>
+  <si>
+    <t>Uml, draft of algorithm for seeking subsystems</t>
+  </si>
+  <si>
+    <t>How does the robot maintain orientation</t>
+  </si>
+  <si>
+    <t>Decide how the model define orientation and map planning</t>
+  </si>
+  <si>
+    <t>GK, LB</t>
+  </si>
+  <si>
+    <t>Map planning, path planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map planning and path planning ump and algorithm </t>
+  </si>
+  <si>
+    <t>Define affordances and signifier</t>
   </si>
 </sst>
 </file>
@@ -529,7 +601,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -587,10 +659,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -632,25 +707,28 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="2" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -830,19 +908,19 @@
               <c:numCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>21.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>9.000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.000000</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.000000</c:v>
+                  <c:v>7.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,13 +1278,13 @@
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>13.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.000000</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,13 +1521,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>951785</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>137667</xdr:rowOff>
+      <xdr:rowOff>137668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>888285</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>161162</xdr:rowOff>
+      <xdr:rowOff>161163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1457,7 +1535,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12775485" y="137667"/>
+        <a:off x="12775485" y="137668"/>
         <a:ext cx="4572001" cy="3810001"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2527,7 +2605,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:L35"/>
+  <dimension ref="B3:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2538,10 +2616,10 @@
     <col min="3" max="3" width="5.40625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.2266" style="1" customWidth="1"/>
     <col min="5" max="6" width="15.3281" style="12" customWidth="1"/>
-    <col min="7" max="7" width="27.6562" style="21" customWidth="1"/>
-    <col min="8" max="8" width="44.5547" style="21" customWidth="1"/>
-    <col min="9" max="12" width="12.4922" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="23.2969" style="21" customWidth="1"/>
+    <col min="7" max="7" width="27.6562" style="22" customWidth="1"/>
+    <col min="8" max="8" width="44.5547" style="22" customWidth="1"/>
+    <col min="9" max="12" width="12.4922" style="22" customWidth="1"/>
+    <col min="13" max="16384" width="23.2969" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="78.5" customHeight="1"/>
@@ -2571,8 +2649,8 @@
         <v>5</v>
       </c>
       <c r="D4" s="8">
-        <f>COUNTIF(K18:K35,"*LB*")</f>
-        <v>9</v>
+        <f>COUNTIF(K19:K43,"*LB*")</f>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1">
@@ -2583,8 +2661,8 @@
         <v>7</v>
       </c>
       <c r="D5" s="8">
-        <f>COUNTIF(K18:K35,"*GK*")</f>
-        <v>1</v>
+        <f>COUNTIF(K19:K43,"*GK*")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1">
@@ -2595,8 +2673,8 @@
         <v>9</v>
       </c>
       <c r="D6" s="8">
-        <f>COUNTIF(K18:K35,"*WK*")</f>
-        <v>3</v>
+        <f>COUNTIF(K19:K43,"*WK*")</f>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="23" customHeight="1">
@@ -2607,8 +2685,8 @@
         <v>11</v>
       </c>
       <c r="D7" s="8">
-        <f>COUNTIF(K18:K35,"*KT*")</f>
-        <v>4</v>
+        <f>COUNTIF(K19:K43,"*KT*")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="1">
@@ -2619,8 +2697,8 @@
         <v>13</v>
       </c>
       <c r="D8" s="11">
-        <f>COUNTIF(K18:K35,"*VJ*")</f>
-        <v>3</v>
+        <f>COUNTIF(K19:K43,"*VJ*")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
@@ -2642,8 +2720,8 @@
         <v>17</v>
       </c>
       <c r="F12" s="16">
-        <f>COUNTIF(J18:J35,"=DONE")</f>
-        <v>12</v>
+        <f>COUNTIF(J19:J43,"=DONE")</f>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
@@ -2651,342 +2729,510 @@
         <v>18</v>
       </c>
       <c r="F13" s="18">
-        <f>COUNTIF(J18:J35,"=WIP")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="22.6" customHeight="1">
-      <c r="E14" t="s" s="19">
+        <f>COUNTIF(J19:J43,"=WIP")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="E14" t="s" s="17">
         <v>19</v>
       </c>
-      <c r="F14" s="20">
-        <f>COUNTIF(J18:J35,"=TO-DO")</f>
+      <c r="F14" s="19">
+        <f>COUNTIF(J19:J43,"=TO-DO")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="22.6" customHeight="1">
+      <c r="E15" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="F15" s="21">
+        <f>COUNTIF(J19:J43,"*")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="G17" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" ht="22.6" customHeight="1">
+      <c r="G18" t="s" s="23">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s" s="25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="G19" t="s" s="26">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" t="s" s="27">
+        <f>IF(L19="WIP","WIP",IF(K19=L19,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K19" t="s" s="27">
+        <v>13</v>
+      </c>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" ht="36.5" customHeight="1">
+      <c r="G20" t="s" s="26">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" t="s" s="30">
+        <f>IF(L20="WIP","WIP",IF(K20=L20,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K20" t="s" s="30">
+        <v>9</v>
+      </c>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="G21" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s" s="27">
+        <v>34</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" t="s" s="27">
+        <f>IF(L21="WIP","WIP",IF(K21=L21,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K21" t="s" s="27">
+        <v>35</v>
+      </c>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="G22" t="s" s="26">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s" s="30">
+        <v>37</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" t="s" s="30">
+        <f>IF(L22="WIP","WIP",IF(K22=L22,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K22" t="s" s="30">
+        <v>38</v>
+      </c>
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="G23" t="s" s="26">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s" s="27">
+        <v>40</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" t="s" s="27">
+        <f>IF(L23="WIP","WIP",IF(K23=L23,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K23" t="s" s="27">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" ht="30" customHeight="1">
-      <c r="G16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" ht="22.6" customHeight="1">
-      <c r="G17" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s" s="23">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="K17" t="s" s="23">
-        <v>25</v>
-      </c>
-      <c r="L17" t="s" s="24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="G18" t="s" s="25">
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="G24" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" t="s" s="30">
+        <f>IF(L24="WIP","WIP",IF(K24=L24,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K24" t="s" s="30">
+        <v>5</v>
+      </c>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="G25" t="s" s="26">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s" s="27">
+        <v>44</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" t="s" s="27">
+        <f>IF(L25="WIP","WIP",IF(K25=L25,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K25" t="s" s="27">
+        <v>45</v>
+      </c>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="G26" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s" s="30">
+        <v>47</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" t="s" s="30">
+        <f>IF(L26="WIP","WIP",IF(K26=L26,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K26" t="s" s="30">
+        <v>48</v>
+      </c>
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="G27" t="s" s="26">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" t="s" s="27">
+        <f>IF(L27="WIP","WIP",IF(K27=L27,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K27" t="s" s="27">
+        <v>5</v>
+      </c>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" ht="36.5" customHeight="1">
+      <c r="G28" t="s" s="26">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s" s="30">
+        <v>51</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" t="s" s="30">
+        <f>IF(L28="WIP","WIP",IF(K28=L28,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K28" t="s" s="30">
+        <v>11</v>
+      </c>
+      <c r="L28" s="32"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="G29" t="s" s="26">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s" s="27">
+        <v>53</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" t="s" s="27">
+        <f>IF(L29="WIP","WIP",IF(K29=L29,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K29" t="s" s="27">
+        <v>54</v>
+      </c>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" ht="36.5" customHeight="1">
+      <c r="G30" t="s" s="26">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s" s="30">
+        <v>56</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" t="s" s="30">
+        <f>IF(L30="WIP","WIP",IF(K30=L30,"TO-DO","DONE"))</f>
+        <v>30</v>
+      </c>
+      <c r="K30" t="s" s="30">
+        <v>57</v>
+      </c>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" ht="22.5" customHeight="1">
+      <c r="G31" t="s" s="26">
+        <v>58</v>
+      </c>
+      <c r="H31" t="s" s="27">
+        <v>59</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" t="s" s="27">
+        <f>IF(L31="WIP","WIP",IF(K31=L31,"TO-DO","DONE"))</f>
         <v>27</v>
       </c>
-      <c r="H18" t="s" s="26">
-        <v>28</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" t="s" s="26">
-        <f>IF(L18="WIP","WIP",IF(K18=L18,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K18" t="s" s="26">
-        <v>13</v>
-      </c>
-      <c r="L18" s="28"/>
-    </row>
-    <row r="19" ht="36.5" customHeight="1">
-      <c r="G19" t="s" s="25">
+      <c r="K31" t="s" s="27">
+        <v>60</v>
+      </c>
+      <c r="L31" t="s" s="34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="G32" t="s" s="26">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s" s="30">
+        <v>62</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" t="s" s="30">
+        <f>IF(L32="WIP","WIP",IF(K32=L32,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K32" t="s" s="30">
+        <v>60</v>
+      </c>
+      <c r="L32" t="s" s="35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="G33" t="s" s="26">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s" s="27">
+        <v>64</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" t="s" s="27">
+        <f>IF(L33="WIP","WIP",IF(K33=L33,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K33" t="s" s="27">
+        <v>65</v>
+      </c>
+      <c r="L33" t="s" s="34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" ht="36.5" customHeight="1">
+      <c r="G34" t="s" s="26">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s" s="30">
+        <v>67</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" t="s" s="30">
+        <f>IF(L34="WIP","WIP",IF(K34=L34,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K34" t="s" s="30">
+        <v>68</v>
+      </c>
+      <c r="L34" t="s" s="35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1">
+      <c r="G35" t="s" s="26">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s" s="27">
+        <v>70</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" t="s" s="27">
+        <f>IF(L35="WIP","WIP",IF(K35=L35,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K35" t="s" s="27">
+        <v>54</v>
+      </c>
+      <c r="L35" t="s" s="34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1">
+      <c r="G36" t="s" s="26">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="30">
+        <v>72</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" t="s" s="30">
+        <f>IF(L36="WIP","WIP",IF(K36=L36,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K36" t="s" s="30">
+        <v>45</v>
+      </c>
+      <c r="L36" t="s" s="35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
+      <c r="G37" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s" s="27">
+        <v>74</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" t="s" s="27">
+        <f>IF(L37="WIP","WIP",IF(K37=L37,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K37" t="s" s="27">
+        <v>75</v>
+      </c>
+      <c r="L37" t="s" s="34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" ht="36.5" customHeight="1">
+      <c r="G38" t="s" s="26">
+        <v>76</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="31"/>
+      <c r="J38" t="s" s="30">
+        <f>IF(L38="WIP","WIP",IF(K38=L38,"TO-DO","DONE"))</f>
         <v>30</v>
       </c>
-      <c r="H19" t="s" s="29">
-        <v>31</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" t="s" s="29">
-        <f>IF(L19="WIP","WIP",IF(K19=L19,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K19" t="s" s="29">
-        <v>9</v>
-      </c>
-      <c r="L19" s="31"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1">
-      <c r="G20" t="s" s="25">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" t="s" s="26">
-        <f>IF(L20="WIP","WIP",IF(K20=L20,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K20" t="s" s="26">
-        <v>34</v>
-      </c>
-      <c r="L20" s="32"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="G21" t="s" s="25">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s" s="29">
-        <v>36</v>
-      </c>
-      <c r="I21" s="30"/>
-      <c r="J21" t="s" s="29">
-        <f>IF(L21="WIP","WIP",IF(K21=L21,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K21" t="s" s="29">
-        <v>37</v>
-      </c>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1">
-      <c r="G22" t="s" s="25">
+      <c r="K38" t="s" s="30">
+        <v>77</v>
+      </c>
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" ht="22.5" customHeight="1">
+      <c r="G39" t="s" s="26">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="27">
+        <v>79</v>
+      </c>
+      <c r="I39" s="28"/>
+      <c r="J39" t="s" s="27">
+        <f>IF(L39="WIP","WIP",IF(K39=L39,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K39" t="s" s="27">
         <v>38</v>
       </c>
-      <c r="H22" t="s" s="26">
-        <v>39</v>
-      </c>
-      <c r="I22" s="27"/>
-      <c r="J22" t="s" s="26">
-        <f>IF(L22="WIP","WIP",IF(K22=L22,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K22" t="s" s="26">
-        <v>5</v>
-      </c>
-      <c r="L22" s="32"/>
-    </row>
-    <row r="23" ht="22.5" customHeight="1">
-      <c r="G23" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s" s="29">
-        <v>41</v>
-      </c>
-      <c r="I23" s="30"/>
-      <c r="J23" t="s" s="29">
-        <f>IF(L23="WIP","WIP",IF(K23=L23,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K23" t="s" s="29">
-        <v>5</v>
-      </c>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="G24" t="s" s="25">
-        <v>42</v>
-      </c>
-      <c r="H24" t="s" s="26">
-        <v>43</v>
-      </c>
-      <c r="I24" s="27"/>
-      <c r="J24" t="s" s="26">
-        <f>IF(L24="WIP","WIP",IF(K24=L24,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K24" t="s" s="26">
-        <v>44</v>
-      </c>
-      <c r="L24" s="32"/>
-    </row>
-    <row r="25" ht="22.5" customHeight="1">
-      <c r="G25" t="s" s="25">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s" s="29">
-        <v>46</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" t="s" s="29">
-        <f>IF(L25="WIP","WIP",IF(K25=L25,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K25" t="s" s="29">
-        <v>47</v>
-      </c>
-      <c r="L25" s="31"/>
-    </row>
-    <row r="26" ht="22.5" customHeight="1">
-      <c r="G26" t="s" s="25">
-        <v>48</v>
-      </c>
-      <c r="H26" t="s" s="26">
-        <v>49</v>
-      </c>
-      <c r="I26" s="27"/>
-      <c r="J26" t="s" s="26">
-        <f>IF(L26="WIP","WIP",IF(K26=L26,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K26" t="s" s="26">
-        <v>5</v>
-      </c>
-      <c r="L26" s="32"/>
-    </row>
-    <row r="27" ht="36.5" customHeight="1">
-      <c r="G27" t="s" s="25">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s" s="29">
-        <v>50</v>
-      </c>
-      <c r="I27" s="30"/>
-      <c r="J27" t="s" s="29">
-        <f>IF(L27="WIP","WIP",IF(K27=L27,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K27" t="s" s="29">
-        <v>11</v>
-      </c>
-      <c r="L27" s="31"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1">
-      <c r="G28" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="H28" t="s" s="26">
-        <v>52</v>
-      </c>
-      <c r="I28" s="27"/>
-      <c r="J28" t="s" s="26">
-        <f>IF(L28="WIP","WIP",IF(K28=L28,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K28" t="s" s="26">
-        <v>53</v>
-      </c>
-      <c r="L28" s="32"/>
-    </row>
-    <row r="29" ht="36.5" customHeight="1">
-      <c r="G29" t="s" s="25">
-        <v>54</v>
-      </c>
-      <c r="H29" t="s" s="29">
-        <v>55</v>
-      </c>
-      <c r="I29" s="30"/>
-      <c r="J29" t="s" s="29">
-        <f>IF(L29="WIP","WIP",IF(K29=L29,"TO-DO","DONE"))</f>
-        <v>29</v>
-      </c>
-      <c r="K29" t="s" s="29">
-        <v>56</v>
-      </c>
-      <c r="L29" s="31"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1">
-      <c r="G30" t="s" s="25">
-        <v>57</v>
-      </c>
-      <c r="H30" t="s" s="26">
-        <v>58</v>
-      </c>
-      <c r="I30" s="27"/>
-      <c r="J30" t="s" s="26">
-        <f>IF(L30="WIP","WIP",IF(K30=L30,"TO-DO","DONE"))</f>
-        <v>26</v>
-      </c>
-      <c r="K30" t="s" s="26">
-        <v>5</v>
-      </c>
-      <c r="L30" t="s" s="33">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" ht="36.5" customHeight="1">
-      <c r="G31" t="s" s="25">
-        <v>59</v>
-      </c>
-      <c r="H31" t="s" s="29">
+      <c r="L39" t="s" s="34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1">
+      <c r="G40" t="s" s="26">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s" s="30">
+        <v>81</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" t="s" s="30">
+        <f>IF(L40="WIP","WIP",IF(K40=L40,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K40" t="s" s="30">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s" s="35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" ht="36.5" customHeight="1">
+      <c r="G41" t="s" s="26">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s" s="27">
+        <v>83</v>
+      </c>
+      <c r="I41" s="28"/>
+      <c r="J41" t="s" s="27">
+        <f>IF(L41="WIP","WIP",IF(K41=L41,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K41" t="s" s="27">
+        <v>84</v>
+      </c>
+      <c r="L41" t="s" s="34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" ht="22.5" customHeight="1">
+      <c r="G42" t="s" s="26">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s" s="30">
+        <v>86</v>
+      </c>
+      <c r="I42" s="31"/>
+      <c r="J42" t="s" s="30">
+        <f>IF(L42="WIP","WIP",IF(K42=L42,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K42" t="s" s="30">
+        <v>84</v>
+      </c>
+      <c r="L42" t="s" s="35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" ht="22.6" customHeight="1">
+      <c r="G43" t="s" s="38">
+        <v>87</v>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="40"/>
+      <c r="J43" t="s" s="41">
+        <f>IF(L43="WIP","WIP",IF(K43=L43,"TO-DO","DONE"))</f>
+        <v>27</v>
+      </c>
+      <c r="K43" t="s" s="41">
         <v>60</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" t="s" s="29">
-        <f>IF(L31="WIP","WIP",IF(K31=L31,"TO-DO","DONE"))</f>
-        <v>61</v>
-      </c>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
-    </row>
-    <row r="32" ht="22.5" customHeight="1">
-      <c r="G32" t="s" s="25">
-        <v>62</v>
-      </c>
-      <c r="H32" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="I32" s="27"/>
-      <c r="J32" t="s" s="26">
-        <f>IF(L32="WIP","WIP",IF(K32=L32,"TO-DO","DONE"))</f>
-        <v>61</v>
-      </c>
-      <c r="K32" s="27"/>
-      <c r="L32" s="32"/>
-    </row>
-    <row r="33" ht="22.5" customHeight="1">
-      <c r="G33" s="36"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" t="s" s="29">
-        <f>IF(L33="WIP","WIP",IF(K33=L33,"TO-DO","DONE"))</f>
-        <v>61</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" ht="22.5" customHeight="1">
-      <c r="G34" s="36"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" t="s" s="26">
-        <f>IF(L34="WIP","WIP",IF(K34=L34,"TO-DO","DONE"))</f>
-        <v>61</v>
-      </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="32"/>
-    </row>
-    <row r="35" ht="22.6" customHeight="1">
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" t="s" s="39">
-        <f>IF(L35="WIP","WIP",IF(K35=L35,"TO-DO","DONE"))</f>
-        <v>61</v>
-      </c>
-      <c r="K35" s="38"/>
-      <c r="L35" s="40"/>
+      <c r="L43" t="s" s="42">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G17:L17"/>
   </mergeCells>
-  <conditionalFormatting sqref="J17:J35">
+  <conditionalFormatting sqref="J18:J43">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
       <formula>"DONE"</formula>
     </cfRule>

--- a/Group_Ass.xlsx
+++ b/Group_Ass.xlsx
@@ -710,10 +710,10 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1278,10 +1278,10 @@
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13.000000</c:v>
+                  <c:v>15.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.000000</c:v>
+                  <c:v>10.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.000000</c:v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="F12" s="16">
         <f>COUNTIF(J19:J43,"=DONE")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F13" s="18">
         <f>COUNTIF(J19:J43,"=WIP")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1">
@@ -3071,14 +3071,12 @@
       <c r="I35" s="28"/>
       <c r="J35" t="s" s="27">
         <f>IF(L35="WIP","WIP",IF(K35=L35,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K35" t="s" s="27">
         <v>54</v>
       </c>
-      <c r="L35" t="s" s="34">
-        <v>27</v>
-      </c>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="G36" t="s" s="26">
@@ -3090,14 +3088,12 @@
       <c r="I36" s="31"/>
       <c r="J36" t="s" s="30">
         <f>IF(L36="WIP","WIP",IF(K36=L36,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K36" t="s" s="30">
         <v>45</v>
       </c>
-      <c r="L36" t="s" s="35">
-        <v>27</v>
-      </c>
+      <c r="L36" s="36"/>
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="G37" t="s" s="26">
@@ -3122,7 +3118,7 @@
       <c r="G38" t="s" s="26">
         <v>76</v>
       </c>
-      <c r="H38" s="36"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="31"/>
       <c r="J38" t="s" s="30">
         <f>IF(L38="WIP","WIP",IF(K38=L38,"TO-DO","DONE"))</f>
@@ -3131,7 +3127,7 @@
       <c r="K38" t="s" s="30">
         <v>77</v>
       </c>
-      <c r="L38" s="37"/>
+      <c r="L38" s="36"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="G39" t="s" s="26">

--- a/Group_Ass.xlsx
+++ b/Group_Ass.xlsx
@@ -61,7 +61,7 @@
     <t>Situation</t>
   </si>
   <si>
-    <t>Number</t>
+    <t>Total</t>
   </si>
   <si>
     <t>Completed</t>
@@ -73,9 +73,6 @@
     <t>To-do</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Tasks</t>
   </si>
   <si>
@@ -238,7 +235,7 @@
     <t>Uml and Algorithms for different parts</t>
   </si>
   <si>
-    <t>LB, GK</t>
+    <t>LB, GK,VJ</t>
   </si>
   <si>
     <t>Define a functional Model</t>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>Define affordances and signifier</t>
+  </si>
+  <si>
+    <t>Different affordances and signifiers for the vehicle</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
     <numFmt numFmtId="59" formatCode="[$€-2] #,##0"/>
     <numFmt numFmtId="60" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -299,13 +299,23 @@
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Avenir Next Demi Bold"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Avenir Next Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next Demi Bold"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="32"/>
-      <color indexed="23"/>
+      <color indexed="24"/>
       <name val="Publico Headline Roman"/>
     </font>
   </fonts>
@@ -324,13 +334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -348,13 +352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -369,13 +379,133 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="12"/>
@@ -386,14 +516,25 @@
       <left style="thin">
         <color indexed="12"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -402,20 +543,57 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="12"/>
       </right>
@@ -423,175 +601,7 @@
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,7 +611,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -617,22 +627,22 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -647,13 +657,13 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -662,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -680,55 +690,52 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,18 +749,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="19"/>
-          <bgColor indexed="20"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="19"/>
+          <fgColor indexed="20"/>
           <bgColor indexed="21"/>
         </patternFill>
       </fill>
@@ -764,8 +760,19 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="19"/>
+          <fgColor indexed="20"/>
           <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="20"/>
+          <bgColor indexed="23"/>
         </patternFill>
       </fill>
     </dxf>
@@ -783,6 +790,7 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="fffffbef"/>
+      <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ff3c77aa"/>
       <rgbColor rgb="ffb3afaa"/>
       <rgbColor rgb="ffcccac6"/>
@@ -920,7 +928,7 @@
                   <c:v>7.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1092,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Number</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1278,10 +1286,10 @@
               <c:numCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15.000000</c:v>
+                  <c:v>16.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.000000</c:v>
+                  <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.000000</c:v>
@@ -1361,7 +1369,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:colOff>2082800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>725576</xdr:rowOff>
     </xdr:to>
@@ -1449,7 +1457,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:colOff>2044700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>647698</xdr:rowOff>
     </xdr:to>
@@ -1495,7 +1503,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2026825</xdr:colOff>
+      <xdr:colOff>2585625</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>272913</xdr:rowOff>
     </xdr:to>
@@ -1519,13 +1527,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>951785</xdr:colOff>
+      <xdr:colOff>947909</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>137668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>888285</xdr:colOff>
+      <xdr:colOff>884409</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>161163</xdr:rowOff>
     </xdr:to>
@@ -1535,7 +1543,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12775485" y="137668"/>
+        <a:off x="12212809" y="137668"/>
         <a:ext cx="4572001" cy="3810001"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2615,7 +2623,8 @@
     <col min="2" max="2" width="23.2969" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.40625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.2266" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.3281" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.3281" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.9375" style="12" customWidth="1"/>
     <col min="7" max="7" width="27.6562" style="22" customWidth="1"/>
     <col min="8" max="8" width="44.5547" style="22" customWidth="1"/>
     <col min="9" max="12" width="12.4922" style="22" customWidth="1"/>
@@ -2698,7 +2707,7 @@
       </c>
       <c r="D8" s="11">
         <f>COUNTIF(K19:K43,"*VJ*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
@@ -2721,7 +2730,7 @@
       </c>
       <c r="F12" s="16">
         <f>COUNTIF(J19:J43,"=DONE")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
@@ -2730,7 +2739,7 @@
       </c>
       <c r="F13" s="18">
         <f>COUNTIF(J19:J43,"=WIP")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1">
@@ -2744,7 +2753,7 @@
     </row>
     <row r="15" ht="22.6" customHeight="1">
       <c r="E15" t="s" s="20">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F15" s="21">
         <f>COUNTIF(J19:J43,"*")</f>
@@ -2753,7 +2762,7 @@
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="G17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2763,35 +2772,35 @@
     </row>
     <row r="18" ht="22.6" customHeight="1">
       <c r="G18" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s" s="24">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="24">
+      <c r="I18" t="s" s="24">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="24">
+      <c r="J18" t="s" s="24">
         <v>24</v>
       </c>
-      <c r="J18" t="s" s="24">
+      <c r="K18" t="s" s="24">
         <v>25</v>
       </c>
-      <c r="K18" t="s" s="24">
+      <c r="L18" t="s" s="25">
         <v>26</v>
-      </c>
-      <c r="L18" t="s" s="25">
-        <v>27</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="G19" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s" s="27">
         <v>28</v>
-      </c>
-      <c r="H19" t="s" s="27">
-        <v>29</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" t="s" s="27">
         <f>IF(L19="WIP","WIP",IF(K19=L19,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s" s="27">
         <v>13</v>
@@ -2800,15 +2809,15 @@
     </row>
     <row r="20" ht="36.5" customHeight="1">
       <c r="G20" t="s" s="26">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s" s="30">
         <v>31</v>
-      </c>
-      <c r="H20" t="s" s="30">
-        <v>32</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" t="s" s="30">
         <f>IF(L20="WIP","WIP",IF(K20=L20,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s" s="30">
         <v>9</v>
@@ -2817,49 +2826,49 @@
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="G21" t="s" s="26">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s" s="27">
         <v>33</v>
-      </c>
-      <c r="H21" t="s" s="27">
-        <v>34</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" t="s" s="27">
         <f>IF(L21="WIP","WIP",IF(K21=L21,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s" s="27">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="33"/>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="G22" t="s" s="26">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s" s="30">
         <v>36</v>
-      </c>
-      <c r="H22" t="s" s="30">
-        <v>37</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" t="s" s="30">
         <f>IF(L22="WIP","WIP",IF(K22=L22,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s" s="30">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L22" s="32"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="G23" t="s" s="26">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s" s="27">
         <v>39</v>
-      </c>
-      <c r="H23" t="s" s="27">
-        <v>40</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" t="s" s="27">
         <f>IF(L23="WIP","WIP",IF(K23=L23,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s" s="27">
         <v>5</v>
@@ -2868,15 +2877,15 @@
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="G24" t="s" s="26">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s" s="30">
         <v>41</v>
-      </c>
-      <c r="H24" t="s" s="30">
-        <v>42</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" t="s" s="30">
         <f>IF(L24="WIP","WIP",IF(K24=L24,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s" s="30">
         <v>5</v>
@@ -2885,49 +2894,49 @@
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="G25" t="s" s="26">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s" s="27">
         <v>43</v>
-      </c>
-      <c r="H25" t="s" s="27">
-        <v>44</v>
       </c>
       <c r="I25" s="28"/>
       <c r="J25" t="s" s="27">
         <f>IF(L25="WIP","WIP",IF(K25=L25,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s" s="27">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L25" s="33"/>
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="G26" t="s" s="26">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s" s="30">
         <v>46</v>
-      </c>
-      <c r="H26" t="s" s="30">
-        <v>47</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" t="s" s="30">
         <f>IF(L26="WIP","WIP",IF(K26=L26,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s" s="30">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L26" s="32"/>
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="G27" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s" s="27">
         <v>49</v>
-      </c>
-      <c r="H27" t="s" s="27">
-        <v>50</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" t="s" s="27">
         <f>IF(L27="WIP","WIP",IF(K27=L27,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s" s="27">
         <v>5</v>
@@ -2936,15 +2945,15 @@
     </row>
     <row r="28" ht="36.5" customHeight="1">
       <c r="G28" t="s" s="26">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="30">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" t="s" s="30">
         <f>IF(L28="WIP","WIP",IF(K28=L28,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s" s="30">
         <v>11</v>
@@ -2953,273 +2962,273 @@
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="G29" t="s" s="26">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s" s="27">
         <v>52</v>
-      </c>
-      <c r="H29" t="s" s="27">
-        <v>53</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" t="s" s="27">
         <f>IF(L29="WIP","WIP",IF(K29=L29,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" t="s" s="27">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L29" s="33"/>
     </row>
     <row r="30" ht="36.5" customHeight="1">
       <c r="G30" t="s" s="26">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s" s="30">
         <v>55</v>
-      </c>
-      <c r="H30" t="s" s="30">
-        <v>56</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" t="s" s="30">
         <f>IF(L30="WIP","WIP",IF(K30=L30,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K30" t="s" s="30">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L30" s="32"/>
     </row>
     <row r="31" ht="22.5" customHeight="1">
       <c r="G31" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="H31" t="s" s="27">
         <v>58</v>
-      </c>
-      <c r="H31" t="s" s="27">
-        <v>59</v>
       </c>
       <c r="I31" s="28"/>
       <c r="J31" t="s" s="27">
         <f>IF(L31="WIP","WIP",IF(K31=L31,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K31" t="s" s="27">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L31" t="s" s="34">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="G32" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s" s="30">
         <v>61</v>
-      </c>
-      <c r="H32" t="s" s="30">
-        <v>62</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" t="s" s="30">
         <f>IF(L32="WIP","WIP",IF(K32=L32,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K32" t="s" s="30">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L32" t="s" s="35">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="G33" t="s" s="26">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s" s="27">
         <v>63</v>
-      </c>
-      <c r="H33" t="s" s="27">
-        <v>64</v>
       </c>
       <c r="I33" s="28"/>
       <c r="J33" t="s" s="27">
         <f>IF(L33="WIP","WIP",IF(K33=L33,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s" s="27">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s" s="34">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="36.5" customHeight="1">
       <c r="G34" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="H34" t="s" s="30">
         <v>66</v>
-      </c>
-      <c r="H34" t="s" s="30">
-        <v>67</v>
       </c>
       <c r="I34" s="31"/>
       <c r="J34" t="s" s="30">
         <f>IF(L34="WIP","WIP",IF(K34=L34,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s" s="30">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L34" t="s" s="35">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="G35" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="H35" t="s" s="27">
         <v>69</v>
-      </c>
-      <c r="H35" t="s" s="27">
-        <v>70</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" t="s" s="27">
         <f>IF(L35="WIP","WIP",IF(K35=L35,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K35" t="s" s="27">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L35" s="29"/>
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="G36" t="s" s="26">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s" s="30">
         <v>71</v>
-      </c>
-      <c r="H36" t="s" s="30">
-        <v>72</v>
       </c>
       <c r="I36" s="31"/>
       <c r="J36" t="s" s="30">
         <f>IF(L36="WIP","WIP",IF(K36=L36,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s" s="30">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L36" s="36"/>
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="G37" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="27">
         <v>73</v>
-      </c>
-      <c r="H37" t="s" s="27">
-        <v>74</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" t="s" s="27">
         <f>IF(L37="WIP","WIP",IF(K37=L37,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K37" t="s" s="27">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L37" t="s" s="34">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="36.5" customHeight="1">
       <c r="G38" t="s" s="26">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H38" s="37"/>
       <c r="I38" s="31"/>
       <c r="J38" t="s" s="30">
         <f>IF(L38="WIP","WIP",IF(K38=L38,"TO-DO","DONE"))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s" s="30">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L38" s="36"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="G39" t="s" s="26">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s" s="27">
         <v>78</v>
-      </c>
-      <c r="H39" t="s" s="27">
-        <v>79</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" t="s" s="27">
         <f>IF(L39="WIP","WIP",IF(K39=L39,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K39" t="s" s="27">
-        <v>38</v>
-      </c>
-      <c r="L39" t="s" s="34">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L39" s="29"/>
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="G40" t="s" s="26">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="30">
         <v>80</v>
-      </c>
-      <c r="H40" t="s" s="30">
-        <v>81</v>
       </c>
       <c r="I40" s="31"/>
       <c r="J40" t="s" s="30">
         <f>IF(L40="WIP","WIP",IF(K40=L40,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K40" t="s" s="30">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L40" t="s" s="35">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="36.5" customHeight="1">
       <c r="G41" t="s" s="26">
+        <v>81</v>
+      </c>
+      <c r="H41" t="s" s="27">
         <v>82</v>
-      </c>
-      <c r="H41" t="s" s="27">
-        <v>83</v>
       </c>
       <c r="I41" s="28"/>
       <c r="J41" t="s" s="27">
         <f>IF(L41="WIP","WIP",IF(K41=L41,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K41" t="s" s="27">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L41" t="s" s="34">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="G42" t="s" s="26">
+        <v>84</v>
+      </c>
+      <c r="H42" t="s" s="30">
         <v>85</v>
-      </c>
-      <c r="H42" t="s" s="30">
-        <v>86</v>
       </c>
       <c r="I42" s="31"/>
       <c r="J42" t="s" s="30">
         <f>IF(L42="WIP","WIP",IF(K42=L42,"TO-DO","DONE"))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K42" t="s" s="30">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L42" t="s" s="35">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="22.6" customHeight="1">
       <c r="G43" t="s" s="38">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s" s="39">
         <v>87</v>
       </c>
-      <c r="H43" s="39"/>
       <c r="I43" s="40"/>
-      <c r="J43" t="s" s="41">
+      <c r="J43" t="s" s="39">
         <f>IF(L43="WIP","WIP",IF(K43=L43,"TO-DO","DONE"))</f>
-        <v>27</v>
-      </c>
-      <c r="K43" t="s" s="41">
-        <v>60</v>
-      </c>
-      <c r="L43" t="s" s="42">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="K43" t="s" s="39">
+        <v>59</v>
+      </c>
+      <c r="L43" t="s" s="41">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
